--- a/data/trans_bre/P12_1_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P12_1_R-Clase-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.641853249623436</v>
+        <v>-2.119505230131072</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.989039338887111</v>
+        <v>-5.907157870093817</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.632381231837002</v>
+        <v>-3.434976696713357</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.3850674914444898</v>
+        <v>-0.4330802417431498</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.09121115115554086</v>
+        <v>-0.1159042900027455</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.3025726766307707</v>
+        <v>-0.3042993140383194</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.2907263025659858</v>
+        <v>-0.2942785405528714</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.02957755572802398</v>
+        <v>-0.04447196763847627</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>9.890224979099456</v>
+        <v>9.332847971570821</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.793737404237745</v>
+        <v>5.852791569759846</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.995510487934403</v>
+        <v>5.775154883090793</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.803518038920315</v>
+        <v>7.89208602429442</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.7464275005337294</v>
+        <v>0.6953753333980347</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4783473634803256</v>
+        <v>0.3884367605621379</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7346754547181682</v>
+        <v>0.7073966163202789</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.7245508940274329</v>
+        <v>0.6780913499559126</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>3.464800020038976</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8.073083653266716</v>
+        <v>8.073083653266718</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7413795015959329</v>
@@ -749,7 +749,7 @@
         <v>0.3601629469445351</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.678743752296362</v>
+        <v>0.6787437522963622</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3.691894823859787</v>
+        <v>4.133618314805275</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.927517426746579</v>
+        <v>4.007165575613201</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.105884885304867</v>
+        <v>-1.109679242370218</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.242747097994299</v>
+        <v>3.517757343200054</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.251150536809543</v>
+        <v>0.2865523056478852</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1959718090235709</v>
+        <v>0.2098120272009046</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.09256503187618655</v>
+        <v>-0.1310284889879602</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.2096847146796267</v>
+        <v>0.2532137453972363</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>14.00374887840312</v>
+        <v>14.78350245578842</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>16.90344443939326</v>
+        <v>15.92330490215445</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8.227987126481741</v>
+        <v>8.39492068247063</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>12.79099533708657</v>
+        <v>12.35525566106103</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.515927981302638</v>
+        <v>1.65824437063142</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.316304852885464</v>
+        <v>1.315502630163371</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.095132168623386</v>
+        <v>1.139494582047708</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.293129334669036</v>
+        <v>1.26951265029716</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>8.676343864473187</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4.915777888341882</v>
+        <v>4.915777888341879</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1656343849250879</v>
@@ -849,7 +849,7 @@
         <v>0.7385668234949933</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.3305799859598472</v>
+        <v>0.330579985959847</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.478766182517712</v>
+        <v>-3.487073601577204</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.638449833291024</v>
+        <v>1.646130588629612</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.022441983413615</v>
+        <v>2.114828273913471</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.8179960946270566</v>
+        <v>-0.6483237212297425</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1765399750865018</v>
+        <v>-0.1736331630244809</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08418789160071888</v>
+        <v>0.08197022692812561</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1439139103054766</v>
+        <v>0.1492926356799505</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.04561723689568994</v>
+        <v>-0.04262846737568955</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>10.86734981219456</v>
+        <v>10.25546621344706</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>14.54465418972683</v>
+        <v>14.70345542152864</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>16.42905593110007</v>
+        <v>17.19958250244745</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10.57450729804674</v>
+        <v>10.97683886911243</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.6432786345990529</v>
+        <v>0.6050767882672022</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9143370817460071</v>
+        <v>0.9006718975785637</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.627510838162898</v>
+        <v>1.647790787630693</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.8238988934709968</v>
+        <v>0.8838795166090883</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>3.484601803256926</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5.933953574652204</v>
+        <v>5.933953574652207</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1664532867026936</v>
@@ -949,7 +949,7 @@
         <v>0.2634571417943443</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.4237155449559023</v>
+        <v>0.4237155449559026</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.1475808848996075</v>
+        <v>-0.3103907488194409</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>5.28535317488295</v>
+        <v>5.328822627239649</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2621278416133225</v>
+        <v>0.403526403120155</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.262915619033011</v>
+        <v>3.032448420936926</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.008469173150411125</v>
+        <v>-0.01276495365416547</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2900098522836536</v>
+        <v>0.2811189319463446</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01760030657746526</v>
+        <v>0.02484369776482294</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1418142603923701</v>
+        <v>0.1808786351598788</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.405309914983943</v>
+        <v>7.282466076023346</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>13.31985520383451</v>
+        <v>13.18631430609676</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6.592519395268126</v>
+        <v>6.85075503167121</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8.742612474938468</v>
+        <v>8.997280674695803</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3949228127542441</v>
+        <v>0.3943062701869307</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8732714724052179</v>
+        <v>0.8716353990460082</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5576991871536826</v>
+        <v>0.5628027539208131</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.6834142861757477</v>
+        <v>0.7154059602677465</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>8.374153464740369</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8.562477871606159</v>
+        <v>8.562477871606164</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3420397686422751</v>
@@ -1049,7 +1049,7 @@
         <v>0.6388192150438149</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.5936732233797756</v>
+        <v>0.5936732233797762</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.9643842176132802</v>
+        <v>0.4032987878626471</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>8.506064015993159</v>
+        <v>8.762628853449378</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4.385462613467903</v>
+        <v>4.1523743890947</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4.652348621424256</v>
+        <v>4.479972647188944</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.03545177596720479</v>
+        <v>0.02626326893801999</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5066710450316371</v>
+        <v>0.5140521524100047</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.296882168824908</v>
+        <v>0.2616988464170265</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.2592302133268722</v>
+        <v>0.2543757036749117</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>12.20629197338975</v>
+        <v>12.0345056925168</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>17.72093430739205</v>
+        <v>17.58868431691686</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>12.40027583808476</v>
+        <v>12.43685814459496</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>12.51440919470575</v>
+        <v>12.6519882833375</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.7904287558381543</v>
+        <v>0.7621089688675046</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.502883631960861</v>
+        <v>1.445474656714721</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.143695537228993</v>
+        <v>1.138093639620718</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.048368916293225</v>
+        <v>1.080298156622163</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>8.763073176714645</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7.997866665139116</v>
+        <v>7.997866665139114</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>1.86410457647684</v>
@@ -1149,7 +1149,7 @@
         <v>1.314955676230855</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.9233291072854802</v>
+        <v>0.9233291072854799</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>9.996305210253935</v>
+        <v>10.32533397824094</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>14.78549431857142</v>
+        <v>14.42329078907363</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5.061791126276209</v>
+        <v>4.880399639577694</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1.058623793200341</v>
+        <v>1.451132038381337</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9193294065363747</v>
+        <v>0.9612472290957971</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>1.34568345256411</v>
+        <v>1.277604058125585</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4935387287951536</v>
+        <v>0.491495069981785</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.06343493274174192</v>
+        <v>0.07125544331087835</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>17.59619735661212</v>
+        <v>17.74170890475538</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>23.23299943483631</v>
+        <v>23.19468780869148</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>11.85327567351544</v>
+        <v>12.13303646117721</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>12.19504141244063</v>
+        <v>12.34580900611294</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>3.412554596134119</v>
+        <v>3.361590490904952</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>4.631348917131911</v>
+        <v>4.628930052542929</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>2.594604959621491</v>
+        <v>2.700879149360811</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>2.423848822194689</v>
+        <v>2.482327941243183</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>4.950713841822324</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6.092759009384283</v>
+        <v>6.09275900938428</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3202810668076901</v>
@@ -1249,7 +1249,7 @@
         <v>0.4252392559910759</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.4563125119545557</v>
+        <v>0.4563125119545554</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>3.444992905801194</v>
+        <v>3.417919276442721</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>8.029271535566634</v>
+        <v>7.976555513152168</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.224811601257117</v>
+        <v>3.212445644880495</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>4.380428267233569</v>
+        <v>4.405795486287007</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.1864163399834319</v>
+        <v>0.1924420526438608</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4795252031504409</v>
+        <v>0.467523081951574</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2588323565476755</v>
+        <v>0.2561425188786976</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.3033025209691472</v>
+        <v>0.3099007091553235</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.397451666386472</v>
+        <v>7.475353096009768</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>12.10249492726743</v>
+        <v>11.88283286825697</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6.796517606369297</v>
+        <v>6.663815524129099</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.753572842426039</v>
+        <v>7.692727828637473</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.4573195087122501</v>
+        <v>0.4649943361916963</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.8180920257417753</v>
+        <v>0.7926136272235107</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6257132103410668</v>
+        <v>0.6119430941298126</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.6204617764804442</v>
+        <v>0.6235897893280071</v>
       </c>
     </row>
     <row r="25">
